--- a/src/kraken_files/excel_files/DASHUSD.xlsx
+++ b/src/kraken_files/excel_files/DASHUSD.xlsx
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,26 +617,6 @@
         <is>
           <t>required_price</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OV55RZ-7F55R-JIEGQQ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>199.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>O5OYVZ-AAKDJ-VVOHBV</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>197.203</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +648,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OUNIGV-RCWUP-L6XEJU</t>
+          <t>OEIQ7F-ABHMY-7A6R26</t>
         </is>
       </c>
     </row>
